--- a/resources/quiz/quizjs.xlsx
+++ b/resources/quiz/quizjs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\POMK\Src\Medicalpark2024\resources\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7BBF7-ACCC-45AE-92DF-27317C67CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730C676-56EC-41D4-A91A-EB8E2F797085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像ファイル変換" sheetId="2" r:id="rId1"/>
     <sheet name="質問リスト" sheetId="1" r:id="rId2"/>
+    <sheet name="設定" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
   <si>
     <t>質問</t>
   </si>
@@ -253,7 +254,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slpeen.png</t>
+    <t>spleen.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題数</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一問あたりの解答時間</t>
+    <rPh sb="0" eb="2">
+      <t>イチモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -284,7 +308,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +474,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -726,9 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5463B239-CAF8-46A9-A718-7B2DB4A4D1B0}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -810,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1502,7 @@
   IF(E32&lt;&gt;"",", ""images/" &amp; VLOOKUP(E32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F32&lt;&gt;"",", ""images/" &amp; VLOOKUP(F32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G32&lt;&gt;"",", ""images/" &amp; VLOOKUP(G32,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/slpeen.png", "images/liver.png"]</v>
+        <v>["images/spleen.png", "images/liver.png"]</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>41</v>
@@ -1731,4 +1761,39 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5A4893-007B-4876-84E9-8A2500C2A902}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="15">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/quiz/quizjs.xlsx
+++ b/resources/quiz/quizjs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\POMK\Src\Medicalpark2024\resources\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730C676-56EC-41D4-A91A-EB8E2F797085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C301C8-7897-4842-AF83-3FA02006A225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="-21600" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像ファイル変換" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
   <si>
     <t>質問</t>
   </si>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次の４つの中で一番大きな臓器はどれ？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>total.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -109,9 +105,6 @@
       <t>ゼンタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肺</t>
   </si>
   <si>
     <t>肺</t>
@@ -122,9 +115,6 @@
   </si>
   <si>
     <t>心臓</t>
-  </si>
-  <si>
-    <t>心臓</t>
     <rPh sb="0" eb="2">
       <t>シンゾウ</t>
     </rPh>
@@ -132,9 +122,6 @@
   </si>
   <si>
     <t>肝臓</t>
-  </si>
-  <si>
-    <t>肝臓</t>
     <rPh sb="0" eb="2">
       <t>カンゾウ</t>
     </rPh>
@@ -142,9 +129,6 @@
   </si>
   <si>
     <t>膵臓</t>
-  </si>
-  <si>
-    <t>膵臓</t>
     <rPh sb="0" eb="2">
       <t>スイゾウ</t>
     </rPh>
@@ -152,10 +136,6 @@
   </si>
   <si>
     <t>heart.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>膵臓の前にある臓器はどれですか？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -178,62 +158,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>これらの4つの臓器の中で最も大きいのは「肝臓」です。\n成人の肝臓は、体重の約2〜3%を占め、1.2〜1.5 kgほどの重さがあります。\n肺も大きい臓器ですが、肝臓の方が重さや体積の点で大きいとされています。</t>
-  </si>
-  <si>
-    <t>膵臓（すいぞう）の前に位置する主な臓器は「胃」です。膵臓は、腹部の深部にあり、胃の後ろに位置しています。\nまた、膵臓の前には「小腸」や「大腸」の一部も存在しますが、直接的に膵臓の前にある主要な臓器は胃です。</t>
-  </si>
-  <si>
     <t>stomach.png</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次のうち、消化器官でないものはどれ？</t>
-  </si>
-  <si>
-    <t>次のうち、呼吸器官でないものはどれ？</t>
-  </si>
-  <si>
-    <t>次のうち、循環器官でないものはどれ？</t>
-  </si>
-  <si>
-    <t>次のうち、内分泌器官でないものはどれ？</t>
-  </si>
-  <si>
-    <t>次のうち、免疫器官でないものはどれ？</t>
-  </si>
-  <si>
-    <t>次のうち、排泄器官でないものはどれ？</t>
-  </si>
-  <si>
-    <t>次の4つの臓器の中で、もっとも上にある臓器はどれ？</t>
-  </si>
-  <si>
-    <t>消化器官とは、食べ物を消化し、栄養を吸収するための器官のことです。\n心臓は、体内の血液を送り出すための器官であり、消化器官ではありません。\n膵臓、肝臓、肺は、それぞれ消化器官の一部です。</t>
-  </si>
-  <si>
-    <t>呼吸器官とは、酸素を取り入れ、二酸化炭素を排出するための器官のことです。\n心臓は、体内の血液を送り出すための器官であり、呼吸器官ではありません。\n肺は、呼吸器官の一部であり、酸素を取り入れるための重要な器官です。</t>
-  </si>
-  <si>
-    <t>循環器官とは、体内の血液を送り出すための器官のことです。\n心臓は、体内の血液を送り出すための重要な器官であり、循環器官の一部です。\n肝臓は、体内の代謝を調節する臓器であり、循環器官ではありません。</t>
-  </si>
-  <si>
-    <t>内分泌器官とは、ホルモンを分泌するための器官のことです。\n膵臓は、インスリンやグルカゴンなどのホルモンを分泌する内分泌器官です。\n肝臓は、体内の代謝を調節する臓器であり、内分泌器官ではありません。</t>
-  </si>
-  <si>
-    <t>脾臓</t>
-  </si>
-  <si>
-    <t>免疫器官とは、体内の免疫反応を調節するための器官のことです。\n脾臓は、体内の免疫反応を調節する重要な器官であり、免疫器官の一部です。\n肝臓は、体内の代謝を調節する臓器であり、免疫器官ではありません。</t>
-  </si>
-  <si>
-    <t>腎臓</t>
-  </si>
-  <si>
-    <t>排泄器官とは、体内の老廃物を排出するための器官のことです。\n腎臓は、体内の老廃物を尿として排出する排泄器官であり、重要な器官です。\n肝臓は、体内の代謝を調節する臓器であり、排泄器官ではありません。</t>
-  </si>
-  <si>
-    <t>これらの4つの臓器の中で、もっとも上にあるのは「肺」です。\n肺は、呼吸器官の一部であり、胸腔の上部に位置しています。\n心臓や肝臓、膵臓は、肺よりも下に位置している臓器です。</t>
   </si>
   <si>
     <t>腎臓</t>
@@ -278,6 +204,290 @@
     <rPh sb="8" eb="10">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３つ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉（よう）と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食道</t>
+    <rPh sb="0" eb="2">
+      <t>ショクドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気道</t>
+    <rPh sb="0" eb="2">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公道</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気の通り道である気道（気管支）が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心臓からは何本の血管が出ているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８本</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈（後で左右に分かれるが心臓から出ているのは一本）の合計８本の血管が出ている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃は人の正面から見てどちら側に膨らんでいるか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃は左側に偏って大きく膨らんでいる。食べた後すぐに横になるのはお勧めしないが、もし横になるなら左側を下にして横になると、食べ物が胃の膨らんだところに貯まって楽なことが多い。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右回り</t>
+    <rPh sb="0" eb="2">
+      <t>ミギマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左回り</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前回り</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大腸は小腸で吸収できなかったもの、腸や腸内細菌の死骸などが送られてくる。お腹の右下から脇腹を上がり、お腹の前を右から左に横切り、左脇腹を下がっていく。水分を抜いて便の硬さを調節している。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食物から摂取した水分はどこでもっとも吸収されるか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小腸</t>
+    <rPh sb="0" eb="2">
+      <t>ショウチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大腸</t>
+    <rPh sb="0" eb="2">
+      <t>ダイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尿をつくる腎臓はどんな形をしているか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エダマメ</t>
+  </si>
+  <si>
+    <t>ソラマメ</t>
+  </si>
+  <si>
+    <t>イチゴ</t>
+  </si>
+  <si>
+    <t>腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膵臓は胃の位置と比べてどこに位置するか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後</t>
+    <rPh sb="0" eb="1">
+      <t>ウシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり（頭部）、身体の左側へと伸びて徐々に細くなる（尾部）。消化液（膵液）やホルモン（インスリン・グルカゴン）を分泌する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肝臓と管で繋がっている臓器はどれか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膵臓</t>
+    <rPh sb="0" eb="2">
+      <t>スイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胆嚢</t>
+    <rPh sb="0" eb="2">
+      <t>タンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血液中の古くなった赤血球を破壊する臓器はどれか？</t>
+  </si>
+  <si>
+    <t>肝臓</t>
+    <rPh sb="0" eb="2">
+      <t>カンゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脾臓</t>
+    <rPh sb="0" eb="2">
+      <t>ヒゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して（これを門脈と呼ぶ）、肝臓へ流れ込む。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物の通り道（消化管）に含まれない臓器はどれか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消化管は口から順に、口腔、食道、胃、小腸（十二指腸、空腸、回腸）、大腸（盲腸、結腸、直腸）、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界には内臓が左右逆という人が存在するか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内臓の位置が左右逆になる「内臓逆位」という先天性の奇形がある。全ての臓器が左右反転している場合を「完全内臓逆位」と呼ぶ。臓器の位置が逆転しているため、診察や手術の際にとても注意が必要となる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -340,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -363,74 +573,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,41 +588,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -768,66 +888,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -838,144 +958,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="2"/>
-    <col min="3" max="3" width="41.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="16.625" style="3"/>
-    <col min="8" max="16384" width="16.625" style="4"/>
+    <col min="8" max="16384" width="16.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="str">
+      <c r="C1" s="4" t="str">
         <f>IF(D1="","","""" &amp; D1 &amp; """")</f>
-        <v>"次の４つの中で一番大きな臓器はどれ？"</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>"肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？"</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="4" t="str">
         <f>IF(D2="","", "[" &amp; CONCATENATE(
   IF(D2&lt;&gt;"","""images/" &amp; VLOOKUP(D2,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E2&lt;&gt;"",", ""images/" &amp; VLOOKUP(E2,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F2&lt;&gt;"",", ""images/" &amp; VLOOKUP(F2,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G2&lt;&gt;"",", ""images/" &amp; VLOOKUP(G2,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/total.png"]</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>["images/stomach.png"]</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="4" t="str">
         <f>IF(D3="","","[" &amp; CONCATENATE(
   IF(D3&lt;&gt;"","""" &amp; D3 &amp; """", ""),
   IF(E3&lt;&gt;"",", """ &amp; E3 &amp; """", ""),
   IF(F3&lt;&gt;"",", """ &amp; F3 &amp; """", ""),
   IF(G3&lt;&gt;"",", """ &amp; G3 &amp; """",""))&amp;"]")</f>
-        <v>["肺", "心臓", "肝臓", "膵臓"]</v>
+        <v>["１つ", "２つ", "３つ"]</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="str">
+      <c r="C4" s="4" t="str">
         <f>IF(D4="","","""" &amp; D4 &amp; """")</f>
-        <v>"肝臓"</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>"３つ"</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="4" t="str">
         <f>IF(D5="","","""" &amp; D5 &amp; """")</f>
-        <v>"これらの4つの臓器の中で最も大きいのは「肝臓」です。\n成人の肝臓は、体重の約2〜3%を占め、1.2〜1.5 kgほどの重さがあります。\n肺も大きい臓器ですが、肝臓の方が重さや体積の点で大きいとされています。"</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>"肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉（よう）と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。"</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1">
         <f>A1+1</f>
         <v>2</v>
@@ -983,18 +1070,15 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="str">
+      <c r="C6" s="4" t="str">
         <f>IF(D6="","","""" &amp; D6 &amp; """")</f>
-        <v>"膵臓の前にある臓器はどれですか？"</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>"空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？"</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1002,28 +1086,19 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="4" t="str">
         <f>IF(D7="","", "[" &amp; CONCATENATE(
   IF(D7&lt;&gt;"","""images/" &amp; VLOOKUP(D7,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E7&lt;&gt;"",", ""images/" &amp; VLOOKUP(E7,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F7&lt;&gt;"",", ""images/" &amp; VLOOKUP(F7,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G7&lt;&gt;"",", ""images/" &amp; VLOOKUP(G7,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/stomach.png", "images/heart.png", "images/liver.png", "images/lung.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1">
         <f>A3+1</f>
         <v>2</v>
@@ -1031,28 +1106,25 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="4" t="str">
         <f>IF(D8="","","[" &amp; CONCATENATE(
   IF(D8&lt;&gt;"","""" &amp; D8 &amp; """", ""),
   IF(E8&lt;&gt;"",", """ &amp; E8 &amp; """", ""),
   IF(F8&lt;&gt;"",", """ &amp; F8 &amp; """", ""),
   IF(G8&lt;&gt;"",", """ &amp; G8 &amp; """",""))&amp;"]")</f>
-        <v>["胃", "心臓", "肝臓", "肺"]</v>
+        <v>["食道", "気道", "公道"]</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1">
         <f>A4+1</f>
         <v>2</v>
@@ -1060,15 +1132,15 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="4" t="str">
         <f>IF(D9="","","""" &amp; D9 &amp; """")</f>
-        <v>"胃"</v>
+        <v>"気道"</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1">
         <f>A5+1</f>
         <v>2</v>
@@ -1076,31 +1148,31 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="4" t="str">
         <f>IF(D10="","","""" &amp; D10 &amp; """")</f>
-        <v>"膵臓（すいぞう）の前に位置する主な臓器は「胃」です。膵臓は、腹部の深部にあり、胃の後ろに位置しています。\nまた、膵臓の前には「小腸」や「大腸」の一部も存在しますが、直接的に膵臓の前にある主要な臓器は胃です。"</v>
+        <v>"空気の通り道である気道（気管支）が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。"</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
-        <f t="shared" ref="A11:A45" si="0">A6+1</f>
+        <f t="shared" ref="A11:A60" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="13" t="str">
+      <c r="C11" s="4" t="str">
         <f t="shared" ref="C11" si="1">IF(D11="","","""" &amp; D11 &amp; """")</f>
-        <v>"次のうち、消化器官でないものはどれ？"</v>
+        <v>"心臓からは何本の血管が出ているか？"</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1108,28 +1180,19 @@
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="str">
+      <c r="C12" s="4" t="str">
         <f>IF(D12="","", "[" &amp; CONCATENATE(
   IF(D12&lt;&gt;"","""images/" &amp; VLOOKUP(D12,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E12&lt;&gt;"",", ""images/" &amp; VLOOKUP(E12,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F12&lt;&gt;"",", ""images/" &amp; VLOOKUP(F12,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G12&lt;&gt;"",", ""images/" &amp; VLOOKUP(G12,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/pancreas.png", "images/liver.png", "images/heart.png", "images/lung.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1137,28 +1200,25 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="13" t="str">
+      <c r="C13" s="4" t="str">
         <f t="shared" ref="C13" si="2">IF(D13="","","[" &amp; CONCATENATE(
   IF(D13&lt;&gt;"","""" &amp; D13 &amp; """", ""),
   IF(E13&lt;&gt;"",", """ &amp; E13 &amp; """", ""),
   IF(F13&lt;&gt;"",", """ &amp; F13 &amp; """", ""),
   IF(G13&lt;&gt;"",", """ &amp; G13 &amp; """",""))&amp;"]")</f>
-        <v>["膵臓", "肝臓", "心臓", "肺"]</v>
+        <v>["４本", "６本", "８本"]</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1166,15 +1226,15 @@
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="13" t="str">
+      <c r="C14" s="4" t="str">
         <f t="shared" ref="C14:C16" si="3">IF(D14="","","""" &amp; D14 &amp; """")</f>
-        <v>"心臓"</v>
+        <v>"８本"</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1182,15 +1242,15 @@
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="13" t="str">
+      <c r="C15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"消化器官とは、食べ物を消化し、栄養を吸収するための器官のことです。\n心臓は、体内の血液を送り出すための器官であり、消化器官ではありません。\n膵臓、肝臓、肺は、それぞれ消化器官の一部です。"</v>
+        <v>"心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈（後で左右に分かれるが心臓から出ているのは一本）の合計８本の血管が出ている。"</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1198,15 +1258,15 @@
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="13" t="str">
+      <c r="C16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"次のうち、呼吸器官でないものはどれ？"</v>
+        <v>"胃は人の正面から見てどちら側に膨らんでいるか？"</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1214,22 +1274,19 @@
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="13" t="str">
+      <c r="C17" s="4" t="str">
         <f>IF(D17="","", "[" &amp; CONCATENATE(
   IF(D17&lt;&gt;"","""images/" &amp; VLOOKUP(D17,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E17&lt;&gt;"",", ""images/" &amp; VLOOKUP(E17,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F17&lt;&gt;"",", ""images/" &amp; VLOOKUP(F17,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G17&lt;&gt;"",", ""images/" &amp; VLOOKUP(G17,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/lung.png", "images/heart.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1237,22 +1294,25 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="4" t="str">
         <f t="shared" ref="C18" si="4">IF(D18="","","[" &amp; CONCATENATE(
   IF(D18&lt;&gt;"","""" &amp; D18 &amp; """", ""),
   IF(E18&lt;&gt;"",", """ &amp; E18 &amp; """", ""),
   IF(F18&lt;&gt;"",", """ &amp; F18 &amp; """", ""),
   IF(G18&lt;&gt;"",", """ &amp; G18 &amp; """",""))&amp;"]")</f>
-        <v>["肺", "心臓"]</v>
+        <v>["右", "真ん中", "左"]</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1260,15 +1320,15 @@
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="13" t="str">
+      <c r="C19" s="4" t="str">
         <f t="shared" ref="C19:C21" si="5">IF(D19="","","""" &amp; D19 &amp; """")</f>
-        <v>"心臓"</v>
+        <v>"左"</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1276,15 +1336,15 @@
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="13" t="str">
+      <c r="C20" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>"呼吸器官とは、酸素を取り入れ、二酸化炭素を排出するための器官のことです。\n心臓は、体内の血液を送り出すための器官であり、呼吸器官ではありません。\n肺は、呼吸器官の一部であり、酸素を取り入れるための重要な器官です。"</v>
+        <v>"胃は左側に偏って大きく膨らんでいる。食べた後すぐに横になるのはお勧めしないが、もし横になるなら左側を下にして横になると、食べ物が胃の膨らんだところに貯まって楽なことが多い。"</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1292,15 +1352,15 @@
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="str">
+      <c r="C21" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>"次のうち、循環器官でないものはどれ？"</v>
+        <v>"大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？"</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1308,22 +1368,19 @@
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="13" t="str">
+      <c r="C22" s="4" t="str">
         <f>IF(D22="","", "[" &amp; CONCATENATE(
   IF(D22&lt;&gt;"","""images/" &amp; VLOOKUP(D22,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E22&lt;&gt;"",", ""images/" &amp; VLOOKUP(E22,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F22&lt;&gt;"",", ""images/" &amp; VLOOKUP(F22,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G22&lt;&gt;"",", ""images/" &amp; VLOOKUP(G22,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/heart.png", "images/liver.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1331,22 +1388,25 @@
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="13" t="str">
+      <c r="C23" s="4" t="str">
         <f t="shared" ref="C23" si="6">IF(D23="","","[" &amp; CONCATENATE(
   IF(D23&lt;&gt;"","""" &amp; D23 &amp; """", ""),
   IF(E23&lt;&gt;"",", """ &amp; E23 &amp; """", ""),
   IF(F23&lt;&gt;"",", """ &amp; F23 &amp; """", ""),
   IF(G23&lt;&gt;"",", """ &amp; G23 &amp; """",""))&amp;"]")</f>
-        <v>["心臓", "肝臓"]</v>
+        <v>["右回り", "左回り", "前回り"]</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1354,15 +1414,15 @@
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="13" t="str">
+      <c r="C24" s="4" t="str">
         <f t="shared" ref="C24:C26" si="7">IF(D24="","","""" &amp; D24 &amp; """")</f>
-        <v>"肝臓"</v>
+        <v>"右回り"</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1370,15 +1430,15 @@
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="13" t="str">
+      <c r="C25" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>"循環器官とは、体内の血液を送り出すための器官のことです。\n心臓は、体内の血液を送り出すための重要な器官であり、循環器官の一部です。\n肝臓は、体内の代謝を調節する臓器であり、循環器官ではありません。"</v>
+        <v>"大腸は小腸で吸収できなかったもの、腸や腸内細菌の死骸などが送られてくる。お腹の右下から脇腹を上がり、お腹の前を右から左に横切り、左脇腹を下がっていく。水分を抜いて便の硬さを調節している。"</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1386,15 +1446,15 @@
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="13" t="str">
+      <c r="C26" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>"次のうち、内分泌器官でないものはどれ？"</v>
+        <v>"飲食物から摂取した水分はどこでもっとも吸収されるか？"</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1402,22 +1462,19 @@
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="13" t="str">
+      <c r="C27" s="4" t="str">
         <f>IF(D27="","", "[" &amp; CONCATENATE(
   IF(D27&lt;&gt;"","""images/" &amp; VLOOKUP(D27,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E27&lt;&gt;"",", ""images/" &amp; VLOOKUP(E27,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F27&lt;&gt;"",", ""images/" &amp; VLOOKUP(F27,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G27&lt;&gt;"",", ""images/" &amp; VLOOKUP(G27,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/pancreas.png", "images/liver.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1425,22 +1482,25 @@
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="13" t="str">
+      <c r="C28" s="4" t="str">
         <f t="shared" ref="C28" si="8">IF(D28="","","[" &amp; CONCATENATE(
   IF(D28&lt;&gt;"","""" &amp; D28 &amp; """", ""),
   IF(E28&lt;&gt;"",", """ &amp; E28 &amp; """", ""),
   IF(F28&lt;&gt;"",", """ &amp; F28 &amp; """", ""),
   IF(G28&lt;&gt;"",", """ &amp; G28 &amp; """",""))&amp;"]")</f>
-        <v>["膵臓", "肝臓"]</v>
+        <v>["胃", "小腸", "大腸"]</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1448,15 +1508,15 @@
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="13" t="str">
+      <c r="C29" s="4" t="str">
         <f t="shared" ref="C29:C31" si="9">IF(D29="","","""" &amp; D29 &amp; """")</f>
-        <v>"肝臓"</v>
+        <v>"小腸"</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1464,15 +1524,15 @@
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="13" t="str">
+      <c r="C30" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>"内分泌器官とは、ホルモンを分泌するための器官のことです。\n膵臓は、インスリンやグルカゴンなどのホルモンを分泌する内分泌器官です。\n肝臓は、体内の代謝を調節する臓器であり、内分泌器官ではありません。"</v>
+        <v>"身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。"</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1480,15 +1540,15 @@
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="13" t="str">
+      <c r="C31" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>"次のうち、免疫器官でないものはどれ？"</v>
+        <v>"尿をつくる腎臓はどんな形をしているか。"</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1496,22 +1556,19 @@
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="13" t="str">
+      <c r="C32" s="4" t="str">
         <f>IF(D32="","", "[" &amp; CONCATENATE(
   IF(D32&lt;&gt;"","""images/" &amp; VLOOKUP(D32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E32&lt;&gt;"",", ""images/" &amp; VLOOKUP(E32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F32&lt;&gt;"",", ""images/" &amp; VLOOKUP(F32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G32&lt;&gt;"",", ""images/" &amp; VLOOKUP(G32,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/spleen.png", "images/liver.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1519,22 +1576,25 @@
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="13" t="str">
+      <c r="C33" s="4" t="str">
         <f t="shared" ref="C33" si="10">IF(D33="","","[" &amp; CONCATENATE(
   IF(D33&lt;&gt;"","""" &amp; D33 &amp; """", ""),
   IF(E33&lt;&gt;"",", """ &amp; E33 &amp; """", ""),
   IF(F33&lt;&gt;"",", """ &amp; F33 &amp; """", ""),
   IF(G33&lt;&gt;"",", """ &amp; G33 &amp; """",""))&amp;"]")</f>
-        <v>["脾臓", "肝臓"]</v>
+        <v>["エダマメ", "ソラマメ", "イチゴ"]</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1542,15 +1602,15 @@
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="13" t="str">
+      <c r="C34" s="4" t="str">
         <f t="shared" ref="C34:C36" si="11">IF(D34="","","""" &amp; D34 &amp; """")</f>
-        <v>"肝臓"</v>
+        <v>"ソラマメ"</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1558,15 +1618,15 @@
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="13" t="str">
+      <c r="C35" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>"免疫器官とは、体内の免疫反応を調節するための器官のことです。\n脾臓は、体内の免疫反応を調節する重要な器官であり、免疫器官の一部です。\n肝臓は、体内の代謝を調節する臓器であり、免疫器官ではありません。"</v>
+        <v>"腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。"</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1574,15 +1634,15 @@
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="13" t="str">
+      <c r="C36" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>"次のうち、排泄器官でないものはどれ？"</v>
+        <v>"膵臓は胃の位置と比べてどこに位置するか？"</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1590,22 +1650,19 @@
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="13" t="str">
+      <c r="C37" s="4" t="str">
         <f>IF(D37="","", "[" &amp; CONCATENATE(
   IF(D37&lt;&gt;"","""images/" &amp; VLOOKUP(D37,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E37&lt;&gt;"",", ""images/" &amp; VLOOKUP(E37,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F37&lt;&gt;"",", ""images/" &amp; VLOOKUP(F37,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G37&lt;&gt;"",", ""images/" &amp; VLOOKUP(G37,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/kidney.png", "images/liver.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1613,22 +1670,25 @@
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="13" t="str">
+      <c r="C38" s="4" t="str">
         <f t="shared" ref="C38" si="12">IF(D38="","","[" &amp; CONCATENATE(
   IF(D38&lt;&gt;"","""" &amp; D38 &amp; """", ""),
   IF(E38&lt;&gt;"",", """ &amp; E38 &amp; """", ""),
   IF(F38&lt;&gt;"",", """ &amp; F38 &amp; """", ""),
   IF(G38&lt;&gt;"",", """ &amp; G38 &amp; """",""))&amp;"]")</f>
-        <v>["腎臓", "肝臓"]</v>
+        <v>["前", "右", "後"]</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1636,15 +1696,15 @@
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="13" t="str">
+      <c r="C39" s="4" t="str">
         <f t="shared" ref="C39:C41" si="13">IF(D39="","","""" &amp; D39 &amp; """")</f>
-        <v>"肝臓"</v>
+        <v>"後"</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1652,15 +1712,15 @@
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="13" t="str">
+      <c r="C40" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>"排泄器官とは、体内の老廃物を排出するための器官のことです。\n腎臓は、体内の老廃物を尿として排出する排泄器官であり、重要な器官です。\n肝臓は、体内の代謝を調節する臓器であり、排泄器官ではありません。"</v>
+        <v>"膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり（頭部）、身体の左側へと伸びて徐々に細くなる（尾部）。消化液（膵液）やホルモン（インスリン・グルカゴン）を分泌する。"</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1668,15 +1728,15 @@
       <c r="B41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="13" t="str">
+      <c r="C41" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>"次の4つの臓器の中で、もっとも上にある臓器はどれ？"</v>
+        <v>"肝臓と管で繋がっている臓器はどれか？"</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1684,19 +1744,19 @@
       <c r="B42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="13" t="str">
+      <c r="C42" s="4" t="str">
         <f>IF(D42="","", "[" &amp; CONCATENATE(
   IF(D42&lt;&gt;"","""images/" &amp; VLOOKUP(D42,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E42&lt;&gt;"",", ""images/" &amp; VLOOKUP(E42,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F42&lt;&gt;"",", ""images/" &amp; VLOOKUP(F42,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(G42&lt;&gt;"",", ""images/" &amp; VLOOKUP(G42,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
-        <v>["images/total.png"]</v>
+        <v>["images/stomach.png"]</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1704,28 +1764,25 @@
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="13" t="str">
+      <c r="C43" s="4" t="str">
         <f t="shared" ref="C43" si="14">IF(D43="","","[" &amp; CONCATENATE(
   IF(D43&lt;&gt;"","""" &amp; D43 &amp; """", ""),
   IF(E43&lt;&gt;"",", """ &amp; E43 &amp; """", ""),
   IF(F43&lt;&gt;"",", """ &amp; F43 &amp; """", ""),
   IF(G43&lt;&gt;"",", """ &amp; G43 &amp; """",""))&amp;"]")</f>
-        <v>["肺", "心臓", "肝臓", "膵臓"]</v>
+        <v>["膵臓", "胆嚢", "小腸"]</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1733,15 +1790,15 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="13" t="str">
-        <f t="shared" ref="C44:C45" si="15">IF(D44="","","""" &amp; D44 &amp; """")</f>
-        <v>"肺"</v>
+      <c r="C44" s="4" t="str">
+        <f t="shared" ref="C44:C46" si="15">IF(D44="","","""" &amp; D44 &amp; """")</f>
+        <v>"胆嚢"</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1749,12 +1806,291 @@
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="13" t="str">
+      <c r="C45" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>"これらの4つの臓器の中で、もっとも上にあるのは「肺」です。\n肺は、呼吸器官の一部であり、胸腔の上部に位置しています。\n心臓や肝臓、膵臓は、肺よりも下に位置している臓器です。"</v>
+        <v>"肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。"</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>"血液中の古くなった赤血球を破壊する臓器はどれか？"</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="str">
+        <f>IF(D47="","", "[" &amp; CONCATENATE(
+  IF(D47&lt;&gt;"","""images/" &amp; VLOOKUP(D47,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(E47&lt;&gt;"",", ""images/" &amp; VLOOKUP(E47,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(F47&lt;&gt;"",", ""images/" &amp; VLOOKUP(F47,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(G47&lt;&gt;"",", ""images/" &amp; VLOOKUP(G47,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+        <v>["images/stomach.png"]</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="str">
+        <f t="shared" ref="C48" si="16">IF(D48="","","[" &amp; CONCATENATE(
+  IF(D48&lt;&gt;"","""" &amp; D48 &amp; """", ""),
+  IF(E48&lt;&gt;"",", """ &amp; E48 &amp; """", ""),
+  IF(F48&lt;&gt;"",", """ &amp; F48 &amp; """", ""),
+  IF(G48&lt;&gt;"",", """ &amp; G48 &amp; """",""))&amp;"]")</f>
+        <v>["肝臓", "小腸", "脾臓"]</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="str">
+        <f t="shared" ref="C49:C51" si="17">IF(D49="","","""" &amp; D49 &amp; """")</f>
+        <v>"脾臓"</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>"脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して（これを門脈と呼ぶ）、肝臓へ流れ込む。"</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>"食べ物の通り道（消化管）に含まれない臓器はどれか？"</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="str">
+        <f>IF(D52="","", "[" &amp; CONCATENATE(
+  IF(D52&lt;&gt;"","""images/" &amp; VLOOKUP(D52,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(E52&lt;&gt;"",", ""images/" &amp; VLOOKUP(E52,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(F52&lt;&gt;"",", ""images/" &amp; VLOOKUP(F52,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(G52&lt;&gt;"",", ""images/" &amp; VLOOKUP(G52,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+        <v>["images/stomach.png"]</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="str">
+        <f t="shared" ref="C53" si="18">IF(D53="","","[" &amp; CONCATENATE(
+  IF(D53&lt;&gt;"","""" &amp; D53 &amp; """", ""),
+  IF(E53&lt;&gt;"",", """ &amp; E53 &amp; """", ""),
+  IF(F53&lt;&gt;"",", """ &amp; F53 &amp; """", ""),
+  IF(G53&lt;&gt;"",", """ &amp; G53 &amp; """",""))&amp;"]")</f>
+        <v>["胃", "脾臓", "小腸"]</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="4" t="str">
+        <f t="shared" ref="C54:C56" si="19">IF(D54="","","""" &amp; D54 &amp; """")</f>
+        <v>"脾臓"</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>"消化管は口から順に、口腔、食道、胃、小腸（十二指腸、空腸、回腸）、大腸（盲腸、結腸、直腸）、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。"</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="str">
+        <f t="shared" si="19"/>
+        <v>"世界には内臓が左右逆という人が存在するか？"</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="str">
+        <f>IF(D57="","", "[" &amp; CONCATENATE(
+  IF(D57&lt;&gt;"","""images/" &amp; VLOOKUP(D57,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(E57&lt;&gt;"",", ""images/" &amp; VLOOKUP(E57,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(F57&lt;&gt;"",", ""images/" &amp; VLOOKUP(F57,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
+  IF(G57&lt;&gt;"",", ""images/" &amp; VLOOKUP(G57,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+        <v>["images/stomach.png"]</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="4" t="str">
+        <f t="shared" ref="C58" si="20">IF(D58="","","[" &amp; CONCATENATE(
+  IF(D58&lt;&gt;"","""" &amp; D58 &amp; """", ""),
+  IF(E58&lt;&gt;"",", """ &amp; E58 &amp; """", ""),
+  IF(F58&lt;&gt;"",", """ &amp; F58 &amp; """", ""),
+  IF(G58&lt;&gt;"",", """ &amp; G58 &amp; """",""))&amp;"]")</f>
+        <v>["する", "しない"]</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="str">
+        <f t="shared" ref="C59:C60" si="21">IF(D59="","","""" &amp; D59 &amp; """")</f>
+        <v>"する"</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="4" t="str">
+        <f t="shared" si="21"/>
+        <v>"内臓の位置が左右逆になる「内臓逆位」という先天性の奇形がある。全ての臓器が左右反転している場合を「完全内臓逆位」と呼ぶ。臓器の位置が逆転しているため、診察や手術の際にとても注意が必要となる。"</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5A4893-007B-4876-84E9-8A2500C2A902}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1777,18 +2113,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="15">
+      <c r="A1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
         <v>60</v>
       </c>
     </row>

--- a/resources/quiz/quizjs.xlsx
+++ b/resources/quiz/quizjs.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\POMK\Src\Medicalpark2024\resources\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C301C8-7897-4842-AF83-3FA02006A225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD93004D-4DE7-4631-8FFD-3B69884ED626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14445" yWindow="-21600" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4875" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像ファイル変換" sheetId="2" r:id="rId1"/>
     <sheet name="質問リスト" sheetId="1" r:id="rId2"/>
     <sheet name="設定" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">質問リスト!$A$1:$G$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>質問</t>
   </si>
@@ -207,10 +210,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>１つ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,43 +219,6 @@
   </si>
   <si>
     <t>３つ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉（よう）と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食道</t>
-    <rPh sb="0" eb="2">
-      <t>ショクドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>気道</t>
-    <rPh sb="0" eb="2">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公道</t>
-    <rPh sb="0" eb="2">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空気の通り道である気道（気管支）が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心臓からは何本の血管が出ているか？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -281,14 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈（後で左右に分かれるが心臓から出ているのは一本）の合計８本の血管が出ている。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>胃は人の正面から見てどちら側に膨らんでいるか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
@@ -317,10 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右回り</t>
     <rPh sb="0" eb="2">
       <t>ミギマワ</t>
@@ -360,28 +310,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小腸</t>
-    <rPh sb="0" eb="2">
-      <t>ショウチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大腸</t>
-    <rPh sb="0" eb="2">
-      <t>ダイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>尿をつくる腎臓はどんな形をしているか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エダマメ</t>
   </si>
   <si>
@@ -392,10 +324,6 @@
   </si>
   <si>
     <t>腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>膵臓は胃の位置と比べてどこに位置するか？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -420,28 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり（頭部）、身体の左側へと伸びて徐々に細くなる（尾部）。消化液（膵液）やホルモン（インスリン・グルカゴン）を分泌する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肝臓と管で繋がっている臓器はどれか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>膵臓</t>
-    <rPh sb="0" eb="2">
-      <t>スイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>胆嚢</t>
-    <rPh sb="0" eb="2">
-      <t>タンノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,32 +355,6 @@
     <t>血液中の古くなった赤血球を破壊する臓器はどれか？</t>
   </si>
   <si>
-    <t>肝臓</t>
-    <rPh sb="0" eb="2">
-      <t>カンゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脾臓</t>
-    <rPh sb="0" eb="2">
-      <t>ヒゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して（これを門脈と呼ぶ）、肝臓へ流れ込む。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食べ物の通り道（消化管）に含まれない臓器はどれか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消化管は口から順に、口腔、食道、胃、小腸（十二指腸、空腸、回腸）、大腸（盲腸、結腸、直腸）、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>世界には内臓が左右逆という人が存在するか？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -489,6 +369,99 @@
   <si>
     <t>内臓の位置が左右逆になる「内臓逆位」という先天性の奇形がある。全ての臓器が左右反転している場合を「完全内臓逆位」と呼ぶ。臓器の位置が逆転しているため、診察や手術の際にとても注意が必要となる。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肺(はい)は左右に分かれ、さらに区域に分かれている。右肺(はい)はいくつの区域に分かれているか？</t>
+  </si>
+  <si>
+    <t>胃(い)</t>
+  </si>
+  <si>
+    <t>胃(い)は人の正面から見てどちら側に膨らんでいるか？</t>
+  </si>
+  <si>
+    <t>気道(きどう)</t>
+  </si>
+  <si>
+    <t>気道(きどう)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気の通り道である気道(きどう)と、食事の通り道である食道(しょくどう)はどちらが身体の前に位置するか？</t>
+  </si>
+  <si>
+    <t>食道(しょくどう)</t>
+  </si>
+  <si>
+    <t>公道(こうどう)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心臓(しんぞう)からは何本の血管が出ているか？</t>
+  </si>
+  <si>
+    <t>食べ物の通り道(消化管)に含まれない臓器はどれか？</t>
+  </si>
+  <si>
+    <t>大腸(だいちょう)はお腹の中でぐるりと一周している。どちら向きで一周しているか？</t>
+  </si>
+  <si>
+    <t>大腸(だいちょう)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小腸(しょうちょう)</t>
+  </si>
+  <si>
+    <t>小腸(しょうちょう)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尿をつくる腎臓(じんぞう)はどんな形をしているか。</t>
+  </si>
+  <si>
+    <t>脾臓(ひぞう)</t>
+  </si>
+  <si>
+    <t>脾臓(ひぞう)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膵臓(すいぞう)は胃(い)の位置と比べてどこに位置するか？</t>
+  </si>
+  <si>
+    <t>膵臓(すいぞう)</t>
+  </si>
+  <si>
+    <t>肝臓(かんぞう)と管で繋がっている臓器はどれか？</t>
+  </si>
+  <si>
+    <t>肝臓(かんぞう)</t>
+  </si>
+  <si>
+    <t>胆嚢(たんのう)</t>
+  </si>
+  <si>
+    <t>胆嚢(たんのう)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉(よう)と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。</t>
+  </si>
+  <si>
+    <t>空気の通り道である気道(気管支)が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。</t>
+  </si>
+  <si>
+    <t>心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈(後で左右に分かれるが心臓から出ているのは一本)の合計８本の血管が出ている。</t>
+  </si>
+  <si>
+    <t>膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり(頭部)、身体の左側へと伸びて徐々に細くなる(尾部)。消化液(膵液)やホルモン(インスリン・グルカゴン)を分泌する。</t>
+  </si>
+  <si>
+    <t>脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して(これを門脈と呼ぶ)、肝臓へ流れ込む。</t>
+  </si>
+  <si>
+    <t>消化管は口から順に、口腔、食道、胃、小腸(十二指腸、空腸、回腸)、大腸(盲腸、結腸、直腸)、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。</t>
   </si>
 </sst>
 </file>
@@ -593,7 +566,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -958,10 +931,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -982,13 +956,13 @@
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(D1="","","""" &amp; D1 &amp; """")</f>
-        <v>"肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？"</v>
+        <v>"肺(はい)は左右に分かれ、さらに区域に分かれている。右肺(はい)はいくつの区域に分かれているか？"</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1004,7 +978,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1023,13 +997,13 @@
         <v>["１つ", "２つ", "３つ"]</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1044,10 +1018,10 @@
         <v>"３つ"</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1056,13 +1030,13 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>IF(D5="","","""" &amp; D5 &amp; """")</f>
-        <v>"肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉（よう）と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。"</v>
+        <v>"肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉(よう)と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。"</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A6" s="1">
         <f>A1+1</f>
         <v>2</v>
@@ -1072,13 +1046,13 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>IF(D6="","","""" &amp; D6 &amp; """")</f>
-        <v>"空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？"</v>
+        <v>"空気の通り道である気道(きどう)と、食事の通り道である食道(しょくどう)はどちらが身体の前に位置するか？"</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A7" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1095,7 +1069,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1112,16 +1086,16 @@
   IF(E8&lt;&gt;"",", """ &amp; E8 &amp; """", ""),
   IF(F8&lt;&gt;"",", """ &amp; F8 &amp; """", ""),
   IF(G8&lt;&gt;"",", """ &amp; G8 &amp; """",""))&amp;"]")</f>
-        <v>["食道", "気道", "公道"]</v>
+        <v>["食道(しょくどう)", "気道(きどう)", "公道(こうどう)"]</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1134,13 +1108,13 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>IF(D9="","","""" &amp; D9 &amp; """")</f>
-        <v>"気道"</v>
+        <v>"気道(きどう)"</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A10" s="1">
         <f>A5+1</f>
         <v>2</v>
@@ -1150,13 +1124,13 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>IF(D10="","","""" &amp; D10 &amp; """")</f>
-        <v>"空気の通り道である気道（気管支）が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。"</v>
+        <v>"空気の通り道である気道(気管支)が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。"</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A60" si="0">A6+1</f>
         <v>3</v>
@@ -1166,13 +1140,13 @@
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" ref="C11" si="1">IF(D11="","","""" &amp; D11 &amp; """")</f>
-        <v>"心臓からは何本の血管が出ているか？"</v>
+        <v>"心臓(しんぞう)からは何本の血管が出ているか？"</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1189,7 +1163,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1209,13 +1183,13 @@
         <v>["４本", "６本", "８本"]</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1231,10 +1205,10 @@
         <v>"８本"</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1244,13 +1218,13 @@
       </c>
       <c r="C15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈（後で左右に分かれるが心臓から出ているのは一本）の合計８本の血管が出ている。"</v>
+        <v>"心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈(後で左右に分かれるが心臓から出ているのは一本)の合計８本の血管が出ている。"</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1260,13 +1234,13 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"胃は人の正面から見てどちら側に膨らんでいるか？"</v>
+        <v>"胃(い)は人の正面から見てどちら側に膨らんでいるか？"</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1283,7 +1257,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1303,13 +1277,13 @@
         <v>["右", "真ん中", "左"]</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1325,10 +1299,10 @@
         <v>"左"</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1341,10 +1315,10 @@
         <v>"胃は左側に偏って大きく膨らんでいる。食べた後すぐに横になるのはお勧めしないが、もし横になるなら左側を下にして横になると、食べ物が胃の膨らんだところに貯まって楽なことが多い。"</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1354,13 +1328,13 @@
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>"大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？"</v>
+        <v>"大腸(だいちょう)はお腹の中でぐるりと一周している。どちら向きで一周しているか？"</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1377,7 +1351,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1397,13 +1371,13 @@
         <v>["右回り", "左回り", "前回り"]</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1419,10 +1393,10 @@
         <v>"右回り"</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1435,10 +1409,10 @@
         <v>"大腸は小腸で吸収できなかったもの、腸や腸内細菌の死骸などが送られてくる。お腹の右下から脇腹を上がり、お腹の前を右から左に横切り、左脇腹を下がっていく。水分を抜いて便の硬さを調節している。"</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1451,10 +1425,10 @@
         <v>"飲食物から摂取した水分はどこでもっとも吸収されるか？"</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1471,7 +1445,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1488,16 +1462,16 @@
   IF(E28&lt;&gt;"",", """ &amp; E28 &amp; """", ""),
   IF(F28&lt;&gt;"",", """ &amp; F28 &amp; """", ""),
   IF(G28&lt;&gt;"",", """ &amp; G28 &amp; """",""))&amp;"]")</f>
-        <v>["胃", "小腸", "大腸"]</v>
+        <v>["胃(い)", "小腸(しょうちょう)", "大腸(だいちょう)"]</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1510,13 +1484,13 @@
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" ref="C29:C31" si="9">IF(D29="","","""" &amp; D29 &amp; """")</f>
-        <v>"小腸"</v>
+        <v>"小腸(しょうちょう)"</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1529,10 +1503,10 @@
         <v>"身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。"</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1542,13 +1516,13 @@
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>"尿をつくる腎臓はどんな形をしているか。"</v>
+        <v>"尿をつくる腎臓(じんぞう)はどんな形をしているか。"</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1565,7 +1539,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1585,13 +1559,13 @@
         <v>["エダマメ", "ソラマメ", "イチゴ"]</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1607,10 +1581,10 @@
         <v>"ソラマメ"</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1623,10 +1597,10 @@
         <v>"腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。"</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1636,13 +1610,13 @@
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>"膵臓は胃の位置と比べてどこに位置するか？"</v>
+        <v>"膵臓(すいぞう)は胃(い)の位置と比べてどこに位置するか？"</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1659,7 +1633,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1679,13 +1653,13 @@
         <v>["前", "右", "後"]</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1701,10 +1675,10 @@
         <v>"後"</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1714,13 +1688,13 @@
       </c>
       <c r="C40" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>"膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり（頭部）、身体の左側へと伸びて徐々に細くなる（尾部）。消化液（膵液）やホルモン（インスリン・グルカゴン）を分泌する。"</v>
+        <v>"膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり(頭部)、身体の左側へと伸びて徐々に細くなる(尾部)。消化液(膵液)やホルモン(インスリン・グルカゴン)を分泌する。"</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1730,13 +1704,13 @@
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>"肝臓と管で繋がっている臓器はどれか？"</v>
+        <v>"肝臓(かんぞう)と管で繋がっている臓器はどれか？"</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1753,7 +1727,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1770,16 +1744,16 @@
   IF(E43&lt;&gt;"",", """ &amp; E43 &amp; """", ""),
   IF(F43&lt;&gt;"",", """ &amp; F43 &amp; """", ""),
   IF(G43&lt;&gt;"",", """ &amp; G43 &amp; """",""))&amp;"]")</f>
-        <v>["膵臓", "胆嚢", "小腸"]</v>
+        <v>["膵臓(すいぞう)", "胆嚢(たんのう)", "小腸(しょうちょう)"]</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1792,13 +1766,13 @@
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" ref="C44:C46" si="15">IF(D44="","","""" &amp; D44 &amp; """")</f>
-        <v>"胆嚢"</v>
+        <v>"胆嚢(たんのう)"</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1811,10 +1785,10 @@
         <v>"肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。"</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1827,10 +1801,10 @@
         <v>"血液中の古くなった赤血球を破壊する臓器はどれか？"</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1847,7 +1821,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1864,13 +1838,13 @@
   IF(E48&lt;&gt;"",", """ &amp; E48 &amp; """", ""),
   IF(F48&lt;&gt;"",", """ &amp; F48 &amp; """", ""),
   IF(G48&lt;&gt;"",", """ &amp; G48 &amp; """",""))&amp;"]")</f>
-        <v>["肝臓", "小腸", "脾臓"]</v>
+        <v>["肝臓(かんぞう)", "小腸(しょうちょう)", "脾臓(ひぞう)"]</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>74</v>
@@ -1886,13 +1860,13 @@
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" ref="C49:C51" si="17">IF(D49="","","""" &amp; D49 &amp; """")</f>
-        <v>"脾臓"</v>
+        <v>"脾臓(ひぞう)"</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1902,13 +1876,13 @@
       </c>
       <c r="C50" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>"脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して（これを門脈と呼ぶ）、肝臓へ流れ込む。"</v>
+        <v>"脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して(これを門脈と呼ぶ)、肝臓へ流れ込む。"</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1918,13 +1892,13 @@
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>"食べ物の通り道（消化管）に含まれない臓器はどれか？"</v>
+        <v>"食べ物の通り道(消化管)に含まれない臓器はどれか？"</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1941,7 +1915,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1958,16 +1932,16 @@
   IF(E53&lt;&gt;"",", """ &amp; E53 &amp; """", ""),
   IF(F53&lt;&gt;"",", """ &amp; F53 &amp; """", ""),
   IF(G53&lt;&gt;"",", """ &amp; G53 &amp; """",""))&amp;"]")</f>
-        <v>["胃", "脾臓", "小腸"]</v>
+        <v>["胃(い)", "脾臓(ひぞう)", "小腸(しょうちょう)"]</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1980,13 +1954,13 @@
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" ref="C54:C56" si="19">IF(D54="","","""" &amp; D54 &amp; """")</f>
-        <v>"脾臓"</v>
+        <v>"脾臓(ひぞう)"</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1996,13 +1970,13 @@
       </c>
       <c r="C55" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>"消化管は口から順に、口腔、食道、胃、小腸（十二指腸、空腸、回腸）、大腸（盲腸、結腸、直腸）、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。"</v>
+        <v>"消化管は口から順に、口腔、食道、胃、小腸(十二指腸、空腸、回腸)、大腸(盲腸、結腸、直腸)、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。"</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2015,10 +1989,10 @@
         <v>"世界には内臓が左右逆という人が存在するか？"</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2035,7 +2009,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -2055,10 +2029,10 @@
         <v>["する", "しない"]</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -2074,10 +2048,10 @@
         <v>"する"</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2090,10 +2064,18 @@
         <v>"内臓の位置が左右逆になる「内臓逆位」という先天性の奇形がある。全ての臓器が左右反転している場合を「完全内臓逆位」と呼ぶ。臓器の位置が逆転しているため、診察や手術の際にとても注意が必要となる。"</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G60" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="回答"/>
+        <filter val="選択肢(最大4つ)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/quiz/quizjs.xlsx
+++ b/resources/quiz/quizjs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\POMK\Src\Medicalpark2024\resources\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\pomk\Src\Medicalpark2024\resources\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD93004D-4DE7-4631-8FFD-3B69884ED626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B9725-CB21-4AAB-B17D-8B9592EA648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4875" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像ファイル変換" sheetId="2" r:id="rId1"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飲食物から摂取した水分はどこでもっとも吸収されるか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>胃</t>
     <rPh sb="0" eb="1">
       <t>イ</t>
@@ -352,13 +348,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>血液中の古くなった赤血球を破壊する臓器はどれか？</t>
-  </si>
-  <si>
-    <t>世界には内臓が左右逆という人が存在するか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,81 +360,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>肺(はい)は左右に分かれ、さらに区域に分かれている。右肺(はい)はいくつの区域に分かれているか？</t>
-  </si>
-  <si>
-    <t>胃(い)</t>
-  </si>
-  <si>
-    <t>胃(い)は人の正面から見てどちら側に膨らんでいるか？</t>
-  </si>
-  <si>
-    <t>気道(きどう)</t>
-  </si>
-  <si>
-    <t>気道(きどう)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空気の通り道である気道(きどう)と、食事の通り道である食道(しょくどう)はどちらが身体の前に位置するか？</t>
-  </si>
-  <si>
-    <t>食道(しょくどう)</t>
-  </si>
-  <si>
-    <t>公道(こうどう)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心臓(しんぞう)からは何本の血管が出ているか？</t>
-  </si>
-  <si>
-    <t>食べ物の通り道(消化管)に含まれない臓器はどれか？</t>
-  </si>
-  <si>
-    <t>大腸(だいちょう)はお腹の中でぐるりと一周している。どちら向きで一周しているか？</t>
-  </si>
-  <si>
-    <t>大腸(だいちょう)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小腸(しょうちょう)</t>
-  </si>
-  <si>
-    <t>小腸(しょうちょう)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尿をつくる腎臓(じんぞう)はどんな形をしているか。</t>
-  </si>
-  <si>
-    <t>脾臓(ひぞう)</t>
-  </si>
-  <si>
-    <t>脾臓(ひぞう)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>膵臓(すいぞう)は胃(い)の位置と比べてどこに位置するか？</t>
-  </si>
-  <si>
-    <t>膵臓(すいぞう)</t>
-  </si>
-  <si>
-    <t>肝臓(かんぞう)と管で繋がっている臓器はどれか？</t>
-  </si>
-  <si>
-    <t>肝臓(かんぞう)</t>
-  </si>
-  <si>
-    <t>胆嚢(たんのう)</t>
-  </si>
-  <si>
-    <t>胆嚢(たんのう)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉(よう)と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。</t>
   </si>
   <si>
@@ -462,6 +376,100 @@
   </si>
   <si>
     <t>消化管は口から順に、口腔、食道、胃、小腸(十二指腸、空腸、回腸)、大腸(盲腸、結腸、直腸)、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。</t>
+  </si>
+  <si>
+    <t>食道</t>
+  </si>
+  <si>
+    <t>気道</t>
+  </si>
+  <si>
+    <t>公道</t>
+  </si>
+  <si>
+    <t>胃</t>
+  </si>
+  <si>
+    <t>大腸</t>
+  </si>
+  <si>
+    <t>小腸</t>
+  </si>
+  <si>
+    <t>膵臓</t>
+  </si>
+  <si>
+    <t>脾臓</t>
+  </si>
+  <si>
+    <t>肝臓</t>
+  </si>
+  <si>
+    <t>胆嚢</t>
+  </si>
+  <si>
+    <t>気道 きどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小腸 しょうちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胆嚢 たんのう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脾臓 ひぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？【02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？【11, 12】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心臓からは何本の血管が出ているか？【01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃は人の正面から見てどちら側に膨らんでいるか？【10, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？【05, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食物から摂取した水分はどこでもっとも吸収されるか？【03, 04, 05】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尿をつくる腎臓はどんな形をしているか。【08】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膵臓は胃の位置と比べてどこに位置するか？【03, 09, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肝臓と管で繋がっている臓器はどれか？【06, 11, ??】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血液中の古くなった赤血球を破壊する臓器はどれか？【04, 06, 09】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物の通り道(消化管)に含まれない臓器はどれか？【03, 04, 09, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界には内臓が左右逆という人が存在するか？【??】</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -931,11 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -956,13 +963,13 @@
       </c>
       <c r="C1" s="4" t="str">
         <f>IF(D1="","","""" &amp; D1 &amp; """")</f>
-        <v>"肺(はい)は左右に分かれ、さらに区域に分かれている。右肺(はい)はいくつの区域に分かれているか？"</v>
+        <v>"肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？【02】"</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -978,7 +985,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1021,7 +1028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1033,10 +1040,10 @@
         <v>"肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉(よう)と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。"</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1">
         <f>A1+1</f>
         <v>2</v>
@@ -1046,13 +1053,13 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>IF(D6="","","""" &amp; D6 &amp; """")</f>
-        <v>"空気の通り道である気道(きどう)と、食事の通り道である食道(しょくどう)はどちらが身体の前に位置するか？"</v>
+        <v>"空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？【11, 12】"</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1">
         <f>A2+1</f>
         <v>2</v>
@@ -1069,7 +1076,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1086,16 +1093,16 @@
   IF(E8&lt;&gt;"",", """ &amp; E8 &amp; """", ""),
   IF(F8&lt;&gt;"",", """ &amp; F8 &amp; """", ""),
   IF(G8&lt;&gt;"",", """ &amp; G8 &amp; """",""))&amp;"]")</f>
-        <v>["食道(しょくどう)", "気道(きどう)", "公道(こうどう)"]</v>
+        <v>["食道", "気道", "公道"]</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1108,13 +1115,13 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>IF(D9="","","""" &amp; D9 &amp; """")</f>
-        <v>"気道(きどう)"</v>
+        <v>"気道 きどう"</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1">
         <f>A5+1</f>
         <v>2</v>
@@ -1127,10 +1134,10 @@
         <v>"空気の通り道である気道(気管支)が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。"</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A60" si="0">A6+1</f>
         <v>3</v>
@@ -1140,13 +1147,13 @@
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" ref="C11" si="1">IF(D11="","","""" &amp; D11 &amp; """")</f>
-        <v>"心臓(しんぞう)からは何本の血管が出ているか？"</v>
+        <v>"心臓からは何本の血管が出ているか？【01】"</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1163,7 +1170,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1208,7 +1215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1221,10 +1228,10 @@
         <v>"心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈(後で左右に分かれるが心臓から出ているのは一本)の合計８本の血管が出ている。"</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1234,13 +1241,13 @@
       </c>
       <c r="C16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>"胃(い)は人の正面から見てどちら側に膨らんでいるか？"</v>
+        <v>"胃は人の正面から見てどちら側に膨らんでいるか？【10, 11】"</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1257,7 +1264,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1302,7 +1309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1318,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1328,13 +1335,13 @@
       </c>
       <c r="C21" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>"大腸(だいちょう)はお腹の中でぐるりと一周している。どちら向きで一周しているか？"</v>
+        <v>"大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？【05, 11】"</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1351,7 +1358,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1396,7 +1403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1412,7 +1419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1422,13 +1429,13 @@
       </c>
       <c r="C26" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>"飲食物から摂取した水分はどこでもっとも吸収されるか？"</v>
+        <v>"飲食物から摂取した水分はどこでもっとも吸収されるか？【03, 04, 05】"</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1445,7 +1452,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1462,16 +1469,16 @@
   IF(E28&lt;&gt;"",", """ &amp; E28 &amp; """", ""),
   IF(F28&lt;&gt;"",", """ &amp; F28 &amp; """", ""),
   IF(G28&lt;&gt;"",", """ &amp; G28 &amp; """",""))&amp;"]")</f>
-        <v>["胃(い)", "小腸(しょうちょう)", "大腸(だいちょう)"]</v>
+        <v>["胃", "小腸", "大腸"]</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1484,13 +1491,13 @@
       </c>
       <c r="C29" s="4" t="str">
         <f t="shared" ref="C29:C31" si="9">IF(D29="","","""" &amp; D29 &amp; """")</f>
-        <v>"小腸(しょうちょう)"</v>
+        <v>"小腸 しょうちょう"</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1503,10 +1510,10 @@
         <v>"身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。"</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1516,13 +1523,13 @@
       </c>
       <c r="C31" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>"尿をつくる腎臓(じんぞう)はどんな形をしているか。"</v>
+        <v>"尿をつくる腎臓はどんな形をしているか。【08】"</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1539,7 +1546,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1559,13 +1566,13 @@
         <v>["エダマメ", "ソラマメ", "イチゴ"]</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1581,10 +1588,10 @@
         <v>"ソラマメ"</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1597,10 +1604,10 @@
         <v>"腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。"</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1610,13 +1617,13 @@
       </c>
       <c r="C36" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>"膵臓(すいぞう)は胃(い)の位置と比べてどこに位置するか？"</v>
+        <v>"膵臓は胃の位置と比べてどこに位置するか？【03, 09, 11】"</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1633,7 +1640,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1653,13 +1660,13 @@
         <v>["前", "右", "後"]</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1675,10 +1682,10 @@
         <v>"後"</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1691,10 +1698,10 @@
         <v>"膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり(頭部)、身体の左側へと伸びて徐々に細くなる(尾部)。消化液(膵液)やホルモン(インスリン・グルカゴン)を分泌する。"</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1704,13 +1711,13 @@
       </c>
       <c r="C41" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>"肝臓(かんぞう)と管で繋がっている臓器はどれか？"</v>
+        <v>"肝臓と管で繋がっている臓器はどれか？【06, 11, ??】"</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1727,7 +1734,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1744,16 +1751,16 @@
   IF(E43&lt;&gt;"",", """ &amp; E43 &amp; """", ""),
   IF(F43&lt;&gt;"",", """ &amp; F43 &amp; """", ""),
   IF(G43&lt;&gt;"",", """ &amp; G43 &amp; """",""))&amp;"]")</f>
-        <v>["膵臓(すいぞう)", "胆嚢(たんのう)", "小腸(しょうちょう)"]</v>
+        <v>["膵臓", "胆嚢", "小腸"]</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1766,13 +1773,13 @@
       </c>
       <c r="C44" s="4" t="str">
         <f t="shared" ref="C44:C46" si="15">IF(D44="","","""" &amp; D44 &amp; """")</f>
-        <v>"胆嚢(たんのう)"</v>
+        <v>"胆嚢 たんのう"</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1785,10 +1792,10 @@
         <v>"肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。"</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1798,13 +1805,13 @@
       </c>
       <c r="C46" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>"血液中の古くなった赤血球を破壊する臓器はどれか？"</v>
+        <v>"血液中の古くなった赤血球を破壊する臓器はどれか？【04, 06, 09】"</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1821,7 +1828,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1838,16 +1845,16 @@
   IF(E48&lt;&gt;"",", """ &amp; E48 &amp; """", ""),
   IF(F48&lt;&gt;"",", """ &amp; F48 &amp; """", ""),
   IF(G48&lt;&gt;"",", """ &amp; G48 &amp; """",""))&amp;"]")</f>
-        <v>["肝臓(かんぞう)", "小腸(しょうちょう)", "脾臓(ひぞう)"]</v>
+        <v>["肝臓", "小腸", "脾臓"]</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1860,13 +1867,13 @@
       </c>
       <c r="C49" s="4" t="str">
         <f t="shared" ref="C49:C51" si="17">IF(D49="","","""" &amp; D49 &amp; """")</f>
-        <v>"脾臓(ひぞう)"</v>
+        <v>"脾臓 ひぞう"</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1879,10 +1886,10 @@
         <v>"脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して(これを門脈と呼ぶ)、肝臓へ流れ込む。"</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1892,13 +1899,13 @@
       </c>
       <c r="C51" s="4" t="str">
         <f t="shared" si="17"/>
-        <v>"食べ物の通り道(消化管)に含まれない臓器はどれか？"</v>
+        <v>"食べ物の通り道(消化管)に含まれない臓器はどれか？【03, 04, 09, 11】"</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1915,7 +1922,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1932,16 +1939,16 @@
   IF(E53&lt;&gt;"",", """ &amp; E53 &amp; """", ""),
   IF(F53&lt;&gt;"",", """ &amp; F53 &amp; """", ""),
   IF(G53&lt;&gt;"",", """ &amp; G53 &amp; """",""))&amp;"]")</f>
-        <v>["胃(い)", "脾臓(ひぞう)", "小腸(しょうちょう)"]</v>
+        <v>["胃", "脾臓", "小腸"]</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -1954,13 +1961,13 @@
       </c>
       <c r="C54" s="4" t="str">
         <f t="shared" ref="C54:C56" si="19">IF(D54="","","""" &amp; D54 &amp; """")</f>
-        <v>"脾臓(ひぞう)"</v>
+        <v>"脾臓 ひぞう"</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1973,10 +1980,10 @@
         <v>"消化管は口から順に、口腔、食道、胃、小腸(十二指腸、空腸、回腸)、大腸(盲腸、結腸、直腸)、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。"</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1986,13 +1993,13 @@
       </c>
       <c r="C56" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>"世界には内臓が左右逆という人が存在するか？"</v>
+        <v>"世界には内臓が左右逆という人が存在するか？【??】"</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2009,7 +2016,7 @@
         <v>["images/stomach.png"]</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -2029,10 +2036,10 @@
         <v>["する", "しない"]</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -2048,10 +2055,10 @@
         <v>"する"</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2064,18 +2071,11 @@
         <v>"内臓の位置が左右逆になる「内臓逆位」という先天性の奇形がある。全ての臓器が左右反転している場合を「完全内臓逆位」と呼ぶ。臓器の位置が逆転しているため、診察や手術の際にとても注意が必要となる。"</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G60" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="回答"/>
-        <filter val="選択肢(最大4つ)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/quiz/quizjs.xlsx
+++ b/resources/quiz/quizjs.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\pomk\Src\Medicalpark2024\resources\quiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\POMK\Src\Medicalpark2024\resources\quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B9725-CB21-4AAB-B17D-8B9592EA648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D890B1-6DBC-44F4-8507-7860175761FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6615" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="画像ファイル変換" sheetId="2" r:id="rId1"/>
+    <sheet name="画像ファイル変換" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="質問リスト" sheetId="1" r:id="rId2"/>
     <sheet name="設定" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">質問リスト!$A$1:$G$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">質問リスト!$A$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
-  <si>
-    <t>質問</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="86">
   <si>
     <t>質問</t>
     <rPh sb="0" eb="2">
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>画像(最大4つ)</t>
-  </si>
-  <si>
-    <t>画像(最大4つ)</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
     </rPh>
@@ -64,22 +58,6 @@
       <t>サイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択肢(最大4つ)</t>
-  </si>
-  <si>
-    <t>選択肢(最大4つ)</t>
-    <rPh sb="0" eb="3">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答</t>
   </si>
   <si>
     <t>回答</t>
@@ -90,9 +68,6 @@
   </si>
   <si>
     <t>解説</t>
-  </si>
-  <si>
-    <t>解説</t>
     <rPh sb="0" eb="2">
       <t>カイセツ</t>
     </rPh>
@@ -310,15 +285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エダマメ</t>
-  </si>
-  <si>
-    <t>ソラマメ</t>
-  </si>
-  <si>
-    <t>イチゴ</t>
-  </si>
-  <si>
     <t>腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -378,97 +344,139 @@
     <t>消化管は口から順に、口腔、食道、胃、小腸(十二指腸、空腸、回腸)、大腸(盲腸、結腸、直腸)、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。</t>
   </si>
   <si>
+    <t>気道 きどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小腸 しょうちょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胆嚢 たんのう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脾臓 ひぞう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？【02】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？【11, 12】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>心臓からは何本の血管が出ているか？【01】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃は人の正面から見てどちら側に膨らんでいるか？【10, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？【05, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食物から摂取した水分はどこでもっとも吸収されるか？【03, 04, 05】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尿をつくる腎臓はどんな形をしているか。【08】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>膵臓は胃の位置と比べてどこに位置するか？【03, 09, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肝臓と管で繋がっている臓器はどれか？【06, 11, ??】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血液中の古くなった赤血球を破壊する臓器はどれか？【04, 06, 09】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物の通り道(消化管)に含まれない臓器はどれか？【03, 04, 09, 11】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界には内臓が左右逆という人が存在するか？【??】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択肢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>食道</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>気道</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>公道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像(最大4つ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解説</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>胃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小腸</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大腸</t>
-  </si>
-  <si>
-    <t>小腸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エダマメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソラマメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イチゴ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>膵臓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胆嚢</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肝臓</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>脾臓</t>
-  </si>
-  <si>
-    <t>肝臓</t>
-  </si>
-  <si>
-    <t>胆嚢</t>
-  </si>
-  <si>
-    <t>気道 きどう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小腸 しょうちょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>胆嚢 たんのう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脾臓 ひぞう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？【02】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？【11, 12】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>心臓からは何本の血管が出ているか？【01】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>胃は人の正面から見てどちら側に膨らんでいるか？【10, 11】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？【05, 11】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食物から摂取した水分はどこでもっとも吸収されるか？【03, 04, 05】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尿をつくる腎臓はどんな形をしているか。【08】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>膵臓は胃の位置と比べてどこに位置するか？【03, 09, 11】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肝臓と管で繋がっている臓器はどれか？【06, 11, ??】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>血液中の古くなった赤血球を破壊する臓器はどれか？【04, 06, 09】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食べ物の通り道(消化管)に含まれない臓器はどれか？【03, 04, 09, 11】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>世界には内臓が左右逆という人が存在するか？【??】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -531,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -554,11 +562,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,11 +786,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -869,66 +1138,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -939,1145 +1208,1279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="2"/>
-    <col min="3" max="3" width="41.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16.625" style="3"/>
-    <col min="8" max="16384" width="16.625" style="7"/>
+    <col min="3" max="3" width="41.625" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="16.625" style="3"/>
+    <col min="7" max="16384" width="16.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="str">
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="str">
         <f>IF(D1="","","""" &amp; D1 &amp; """")</f>
         <v>"肺は左右に分かれ、さらに区域に分かれている。右肺はいくつの区域に分かれているか？【02】"</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="1">
+      <c r="D1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A2" s="9">
+        <f>A1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="str">
+      <c r="B2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="str">
         <f>IF(D2="","", "[" &amp; CONCATENATE(
   IF(D2&lt;&gt;"","""images/" &amp; VLOOKUP(D2,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E2&lt;&gt;"",", ""images/" &amp; VLOOKUP(E2,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F2&lt;&gt;"",", ""images/" &amp; VLOOKUP(F2,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G2&lt;&gt;"",", ""images/" &amp; VLOOKUP(G2,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="9">
+        <f>A2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="str">
+      <c r="B3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="17" t="str">
         <f>IF(D3="","","[" &amp; CONCATENATE(
   IF(D3&lt;&gt;"","""" &amp; D3 &amp; """", ""),
   IF(E3&lt;&gt;"",", """ &amp; E3 &amp; """", ""),
   IF(F3&lt;&gt;"",", """ &amp; F3 &amp; """", ""),
-  IF(G3&lt;&gt;"",", """ &amp; G3 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["１つ", "２つ", "３つ"]</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
+      <c r="D3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
+        <f>A3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="str">
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="str">
         <f>IF(D4="","","""" &amp; D4 &amp; """")</f>
         <v>"３つ"</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1">
+      <c r="D4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A5" s="10">
+        <f>A4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="str">
+      <c r="B5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="str">
         <f>IF(D5="","","""" &amp; D5 &amp; """")</f>
         <v>"肺は左右二つに大きく分かれているが、それぞれの肺はさらにいくつかの区域に分かれている。この区域を葉(よう)と呼んでいる。右の肺は3葉、左の肺は2葉に分けられる。"</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1">
-        <f>A1+1</f>
+      <c r="D5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>IF(D6="","","""" &amp; D6 &amp; """")</f>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="str">
+        <f t="shared" ref="C6" si="0">IF(D6="","","""" &amp; D6 &amp; """")</f>
         <v>"空気の通り道である気道と、食事の通り道である食道はどちらが身体の前に位置するか？【11, 12】"</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1">
+      <c r="D6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A7" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="str">
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="str">
         <f>IF(D7="","", "[" &amp; CONCATENATE(
   IF(D7&lt;&gt;"","""images/" &amp; VLOOKUP(D7,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E7&lt;&gt;"",", ""images/" &amp; VLOOKUP(E7,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F7&lt;&gt;"",", ""images/" &amp; VLOOKUP(F7,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G7&lt;&gt;"",", ""images/" &amp; VLOOKUP(G7,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1">
+      <c r="A8" s="9">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f>IF(D8="","","[" &amp; CONCATENATE(
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f t="shared" ref="C8" si="1">IF(D8="","","[" &amp; CONCATENATE(
   IF(D8&lt;&gt;"","""" &amp; D8 &amp; """", ""),
   IF(E8&lt;&gt;"",", """ &amp; E8 &amp; """", ""),
   IF(F8&lt;&gt;"",", """ &amp; F8 &amp; """", ""),
-  IF(G8&lt;&gt;"",", """ &amp; G8 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["食道", "気道", "公道"]</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>63</v>
+      <c r="D8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f>IF(D9="","","""" &amp; D9 &amp; """")</f>
+      <c r="B9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f t="shared" ref="C9:C11" si="2">IF(D9="","","""" &amp; D9 &amp; """")</f>
         <v>"気道 きどう"</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="1">
+      <c r="D9" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A10" s="10">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f>IF(D10="","","""" &amp; D10 &amp; """")</f>
+      <c r="B10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f t="shared" si="2"/>
         <v>"空気の通り道である気道(気管支)が前面、食べ物の通り道である食道は気道よりも背面に位置し、気管支と接している。身体の中に「公道」と呼ばれる臓器はない。"</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="1">
-        <f t="shared" ref="A11:A60" si="0">A6+1</f>
+      <c r="D10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" ref="C11" si="1">IF(D11="","","""" &amp; D11 &amp; """")</f>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>"心臓からは何本の血管が出ているか？【01】"</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
+      <c r="D11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A12" s="9">
+        <f t="shared" ref="A12:A60" si="3">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="str">
+      <c r="B12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="17" t="str">
         <f>IF(D12="","", "[" &amp; CONCATENATE(
   IF(D12&lt;&gt;"","""images/" &amp; VLOOKUP(D12,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E12&lt;&gt;"",", ""images/" &amp; VLOOKUP(E12,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F12&lt;&gt;"",", ""images/" &amp; VLOOKUP(F12,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G12&lt;&gt;"",", ""images/" &amp; VLOOKUP(G12,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
+      <c r="A13" s="9">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="str">
-        <f t="shared" ref="C13" si="2">IF(D13="","","[" &amp; CONCATENATE(
+      <c r="B13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f t="shared" ref="C13" si="4">IF(D13="","","[" &amp; CONCATENATE(
   IF(D13&lt;&gt;"","""" &amp; D13 &amp; """", ""),
   IF(E13&lt;&gt;"",", """ &amp; E13 &amp; """", ""),
   IF(F13&lt;&gt;"",", """ &amp; F13 &amp; """", ""),
-  IF(G13&lt;&gt;"",", """ &amp; G13 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["４本", "６本", "８本"]</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
+      <c r="D13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
+      <c r="A14" s="9">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="str">
-        <f t="shared" ref="C14:C16" si="3">IF(D14="","","""" &amp; D14 &amp; """")</f>
+      <c r="B14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f t="shared" ref="C14:C16" si="5">IF(D14="","","""" &amp; D14 &amp; """")</f>
         <v>"８本"</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
+      <c r="D14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A15" s="10">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="B15" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f t="shared" si="5"/>
         <v>"心臓からは酸素を多く含む動脈血が流れる大動脈と４本の肺静脈、酸素が少ない静脈血が流れる上下２本の大静脈と肺動脈(後で左右に分かれるが心臓から出ているのは一本)の合計８本の血管が出ている。"</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
+      <c r="D15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="8">
         <v>4</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="str">
-        <f t="shared" si="3"/>
+      <c r="B16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f t="shared" si="5"/>
         <v>"胃は人の正面から見てどちら側に膨らんでいるか？【10, 11】"</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
+      <c r="D16" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A17" s="9">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="str">
+      <c r="B17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17" t="str">
         <f>IF(D17="","", "[" &amp; CONCATENATE(
   IF(D17&lt;&gt;"","""images/" &amp; VLOOKUP(D17,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E17&lt;&gt;"",", ""images/" &amp; VLOOKUP(E17,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F17&lt;&gt;"",", ""images/" &amp; VLOOKUP(F17,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G17&lt;&gt;"",", ""images/" &amp; VLOOKUP(G17,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
+      <c r="A18" s="9">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="str">
-        <f t="shared" ref="C18" si="4">IF(D18="","","[" &amp; CONCATENATE(
+      <c r="B18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f t="shared" ref="C18" si="6">IF(D18="","","[" &amp; CONCATENATE(
   IF(D18&lt;&gt;"","""" &amp; D18 &amp; """", ""),
   IF(E18&lt;&gt;"",", """ &amp; E18 &amp; """", ""),
   IF(F18&lt;&gt;"",", """ &amp; F18 &amp; """", ""),
-  IF(G18&lt;&gt;"",", """ &amp; G18 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["右", "真ん中", "左"]</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>36</v>
+      <c r="D18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
+      <c r="A19" s="9">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="str">
-        <f t="shared" ref="C19:C21" si="5">IF(D19="","","""" &amp; D19 &amp; """")</f>
+      <c r="B19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f t="shared" ref="C19:C21" si="7">IF(D19="","","""" &amp; D19 &amp; """")</f>
         <v>"左"</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
+      <c r="D19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A20" s="10">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="B20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="19" t="str">
+        <f t="shared" si="7"/>
         <v>"胃は左側に偏って大きく膨らんでいる。食べた後すぐに横になるのはお勧めしないが、もし横になるなら左側を下にして横になると、食べ物が胃の膨らんだところに貯まって楽なことが多い。"</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
+      <c r="D20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="8">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="str">
-        <f t="shared" si="5"/>
+      <c r="B21" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f t="shared" si="7"/>
         <v>"大腸はお腹の中でぐるりと一周している。どちら向きで一周しているか？【05, 11】"</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A22" s="9">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="4" t="str">
+      <c r="B22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="17" t="str">
         <f>IF(D22="","", "[" &amp; CONCATENATE(
   IF(D22&lt;&gt;"","""images/" &amp; VLOOKUP(D22,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E22&lt;&gt;"",", ""images/" &amp; VLOOKUP(E22,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F22&lt;&gt;"",", ""images/" &amp; VLOOKUP(F22,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G22&lt;&gt;"",", ""images/" &amp; VLOOKUP(G22,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
+      <c r="A23" s="9">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="str">
-        <f t="shared" ref="C23" si="6">IF(D23="","","[" &amp; CONCATENATE(
+      <c r="B23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="17" t="str">
+        <f t="shared" ref="C23" si="8">IF(D23="","","[" &amp; CONCATENATE(
   IF(D23&lt;&gt;"","""" &amp; D23 &amp; """", ""),
   IF(E23&lt;&gt;"",", """ &amp; E23 &amp; """", ""),
   IF(F23&lt;&gt;"",", """ &amp; F23 &amp; """", ""),
-  IF(G23&lt;&gt;"",", """ &amp; G23 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["右回り", "左回り", "前回り"]</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>40</v>
+      <c r="D23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
+      <c r="A24" s="9">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="17" t="str">
+        <f t="shared" ref="C24:C26" si="9">IF(D24="","","""" &amp; D24 &amp; """")</f>
+        <v>"右回り"</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A25" s="10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="19" t="str">
+        <f t="shared" si="9"/>
+        <v>"大腸は小腸で吸収できなかったもの、腸や腸内細菌の死骸などが送られてくる。お腹の右下から脇腹を上がり、お腹の前を右から左に横切り、左脇腹を下がっていく。水分を抜いて便の硬さを調節している。"</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="8">
         <v>6</v>
       </c>
-      <c r="C24" s="4" t="str">
-        <f t="shared" ref="C24:C26" si="7">IF(D24="","","""" &amp; D24 &amp; """")</f>
-        <v>"右回り"</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"大腸は小腸で吸収できなかったもの、腸や腸内細菌の死骸などが送られてくる。お腹の右下から脇腹を上がり、お腹の前を右から左に横切り、左脇腹を下がっていく。水分を抜いて便の硬さを調節している。"</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
+      <c r="B26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>"飲食物から摂取した水分はどこでもっとも吸収されるか？【03, 04, 05】"</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A27" s="9">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>"飲食物から摂取した水分はどこでもっとも吸収されるか？【03, 04, 05】"</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="str">
+      <c r="B27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="17" t="str">
         <f>IF(D27="","", "[" &amp; CONCATENATE(
   IF(D27&lt;&gt;"","""images/" &amp; VLOOKUP(D27,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E27&lt;&gt;"",", ""images/" &amp; VLOOKUP(E27,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F27&lt;&gt;"",", ""images/" &amp; VLOOKUP(F27,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G27&lt;&gt;"",", ""images/" &amp; VLOOKUP(G27,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
+      <c r="A28" s="9">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="str">
-        <f t="shared" ref="C28" si="8">IF(D28="","","[" &amp; CONCATENATE(
+      <c r="B28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="17" t="str">
+        <f t="shared" ref="C28" si="10">IF(D28="","","[" &amp; CONCATENATE(
   IF(D28&lt;&gt;"","""" &amp; D28 &amp; """", ""),
   IF(E28&lt;&gt;"",", """ &amp; E28 &amp; """", ""),
   IF(F28&lt;&gt;"",", """ &amp; F28 &amp; """", ""),
-  IF(G28&lt;&gt;"",", """ &amp; G28 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["胃", "小腸", "大腸"]</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>65</v>
+      <c r="D28" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
+      <c r="A29" s="9">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="17" t="str">
+        <f t="shared" ref="C29:C31" si="11">IF(D29="","","""" &amp; D29 &amp; """")</f>
+        <v>"小腸 しょうちょう"</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A30" s="10">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C29" s="4" t="str">
-        <f t="shared" ref="C29:C31" si="9">IF(D29="","","""" &amp; D29 &amp; """")</f>
-        <v>"小腸 しょうちょう"</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="B30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v>"身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。"</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="8">
+        <v>7</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"身体に取りこまれた水分は約９０％が小腸で吸収されます。また小腸で水分が吸収されるとき、一緒に塩分や糖分があると吸収が促進されます。小腸での水分吸収が不十分だと下痢をおこしやすくなります。"</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
+      <c r="C31" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>"尿をつくる腎臓はどんな形をしているか。【08】"</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A32" s="9">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>"尿をつくる腎臓はどんな形をしているか。【08】"</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="4" t="str">
+      <c r="B32" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="17" t="str">
         <f>IF(D32="","", "[" &amp; CONCATENATE(
   IF(D32&lt;&gt;"","""images/" &amp; VLOOKUP(D32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E32&lt;&gt;"",", ""images/" &amp; VLOOKUP(E32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F32&lt;&gt;"",", ""images/" &amp; VLOOKUP(F32,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G32&lt;&gt;"",", ""images/" &amp; VLOOKUP(G32,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D32" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
+      <c r="A33" s="9">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="str">
-        <f t="shared" ref="C33" si="10">IF(D33="","","[" &amp; CONCATENATE(
+      <c r="B33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="17" t="str">
+        <f t="shared" ref="C33" si="12">IF(D33="","","[" &amp; CONCATENATE(
   IF(D33&lt;&gt;"","""" &amp; D33 &amp; """", ""),
   IF(E33&lt;&gt;"",", """ &amp; E33 &amp; """", ""),
   IF(F33&lt;&gt;"",", """ &amp; F33 &amp; """", ""),
-  IF(G33&lt;&gt;"",", """ &amp; G33 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["エダマメ", "ソラマメ", "イチゴ"]</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>46</v>
+      <c r="D33" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="1">
-        <f t="shared" si="0"/>
+      <c r="A34" s="9">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="4" t="str">
-        <f t="shared" ref="C34:C36" si="11">IF(D34="","","""" &amp; D34 &amp; """")</f>
+      <c r="B34" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="17" t="str">
+        <f t="shared" ref="C34:C36" si="13">IF(D34="","","""" &amp; D34 &amp; """")</f>
         <v>"ソラマメ"</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="1">
-        <f t="shared" si="0"/>
+      <c r="D34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A35" s="10">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="19" t="str">
+        <f t="shared" si="13"/>
+        <v>"腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。"</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="8">
         <v>8</v>
       </c>
-      <c r="C35" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>"腎臓はソラマメ型をした臓器で身体の後方に位置し、左右二つ存在する。右の腎臓は少し肝臓に押されて左の腎臓の位置よりも低い位置にある。"</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="1">
-        <f t="shared" si="0"/>
+      <c r="B36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v>"膵臓は胃の位置と比べてどこに位置するか？【03, 09, 11】"</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A37" s="9">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>"膵臓は胃の位置と比べてどこに位置するか？【03, 09, 11】"</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="4" t="str">
+      <c r="B37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="17" t="str">
         <f>IF(D37="","", "[" &amp; CONCATENATE(
   IF(D37&lt;&gt;"","""images/" &amp; VLOOKUP(D37,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E37&lt;&gt;"",", ""images/" &amp; VLOOKUP(E37,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F37&lt;&gt;"",", ""images/" &amp; VLOOKUP(F37,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G37&lt;&gt;"",", ""images/" &amp; VLOOKUP(G37,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="1">
-        <f t="shared" si="0"/>
+      <c r="A38" s="9">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <f t="shared" ref="C38" si="12">IF(D38="","","[" &amp; CONCATENATE(
+      <c r="B38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="17" t="str">
+        <f t="shared" ref="C38" si="14">IF(D38="","","[" &amp; CONCATENATE(
   IF(D38&lt;&gt;"","""" &amp; D38 &amp; """", ""),
   IF(E38&lt;&gt;"",", """ &amp; E38 &amp; """", ""),
   IF(F38&lt;&gt;"",", """ &amp; F38 &amp; """", ""),
-  IF(G38&lt;&gt;"",", """ &amp; G38 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["前", "右", "後"]</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="D38" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="17" t="str">
+        <f t="shared" ref="C39:C41" si="15">IF(D39="","","""" &amp; D39 &amp; """")</f>
+        <v>"後"</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A40" s="10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>"膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり(頭部)、身体の左側へと伸びて徐々に細くなる(尾部)。消化液(膵液)やホルモン(インスリン・グルカゴン)を分泌する。"</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4" t="str">
-        <f t="shared" ref="C39:C41" si="13">IF(D39="","","""" &amp; D39 &amp; """")</f>
-        <v>"後"</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="str">
-        <f t="shared" si="13"/>
-        <v>"膵臓はオタマジャクシにも似た形で身体の中心、胃後方に位置する。中心部分が膨らんでおり(頭部)、身体の左側へと伸びて徐々に細くなる(尾部)。消化液(膵液)やホルモン(インスリン・グルカゴン)を分泌する。"</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="1">
-        <f t="shared" si="0"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="8">
         <v>9</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <f t="shared" si="13"/>
+      <c r="B41" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="12" t="str">
+        <f t="shared" si="15"/>
         <v>"肝臓と管で繋がっている臓器はどれか？【06, 11, ??】"</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="1">
-        <f t="shared" si="0"/>
+      <c r="D41" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A42" s="9">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="4" t="str">
+      <c r="B42" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="17" t="str">
         <f>IF(D42="","", "[" &amp; CONCATENATE(
   IF(D42&lt;&gt;"","""images/" &amp; VLOOKUP(D42,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E42&lt;&gt;"",", ""images/" &amp; VLOOKUP(E42,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F42&lt;&gt;"",", ""images/" &amp; VLOOKUP(F42,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G42&lt;&gt;"",", ""images/" &amp; VLOOKUP(G42,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D42" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="1">
-        <f t="shared" si="0"/>
+      <c r="A43" s="9">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4" t="str">
-        <f t="shared" ref="C43" si="14">IF(D43="","","[" &amp; CONCATENATE(
+      <c r="B43" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="17" t="str">
+        <f t="shared" ref="C43" si="16">IF(D43="","","[" &amp; CONCATENATE(
   IF(D43&lt;&gt;"","""" &amp; D43 &amp; """", ""),
   IF(E43&lt;&gt;"",", """ &amp; E43 &amp; """", ""),
   IF(F43&lt;&gt;"",", """ &amp; F43 &amp; """", ""),
-  IF(G43&lt;&gt;"",", """ &amp; G43 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["膵臓", "胆嚢", "小腸"]</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>66</v>
+      <c r="D43" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="1">
-        <f t="shared" si="0"/>
+      <c r="A44" s="9">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="str">
-        <f t="shared" ref="C44:C46" si="15">IF(D44="","","""" &amp; D44 &amp; """")</f>
+      <c r="B44" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="17" t="str">
+        <f t="shared" ref="C44:C46" si="17">IF(D44="","","""" &amp; D44 &amp; """")</f>
         <v>"胆嚢 たんのう"</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A45" s="10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="19" t="str">
+        <f t="shared" si="17"/>
+        <v>"肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。"</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="8">
+        <v>10</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>"血液中の古くなった赤血球を破壊する臓器はどれか？【04, 06, 09】"</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A47" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>"肝臓でつくられた胆汁酸液が総肝管を通って胆嚢に移動し、胆汁として貯蔵される。胆汁はその後、総胆管を通って移動し、膵管と合流して十二指腸へと流れ込む。"</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4" t="str">
-        <f t="shared" si="15"/>
-        <v>"血液中の古くなった赤血球を破壊する臓器はどれか？【04, 06, 09】"</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="4" t="str">
+      <c r="C47" s="17" t="str">
         <f>IF(D47="","", "[" &amp; CONCATENATE(
   IF(D47&lt;&gt;"","""images/" &amp; VLOOKUP(D47,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E47&lt;&gt;"",", ""images/" &amp; VLOOKUP(E47,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F47&lt;&gt;"",", ""images/" &amp; VLOOKUP(F47,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G47&lt;&gt;"",", ""images/" &amp; VLOOKUP(G47,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="1">
-        <f t="shared" si="0"/>
+      <c r="A48" s="9">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4" t="str">
-        <f t="shared" ref="C48" si="16">IF(D48="","","[" &amp; CONCATENATE(
+      <c r="B48" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="17" t="str">
+        <f t="shared" ref="C48" si="18">IF(D48="","","[" &amp; CONCATENATE(
   IF(D48&lt;&gt;"","""" &amp; D48 &amp; """", ""),
   IF(E48&lt;&gt;"",", """ &amp; E48 &amp; """", ""),
   IF(F48&lt;&gt;"",", """ &amp; F48 &amp; """", ""),
-  IF(G48&lt;&gt;"",", """ &amp; G48 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["肝臓", "小腸", "脾臓"]</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="17" t="str">
+        <f t="shared" ref="C49:C51" si="19">IF(D49="","","""" &amp; D49 &amp; """")</f>
+        <v>"脾臓 ひぞう"</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A50" s="10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v>"脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して(これを門脈と呼ぶ)、肝臓へ流れ込む。"</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="8">
+        <v>11</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="12" t="str">
+        <f t="shared" si="19"/>
+        <v>"食べ物の通り道(消化管)に含まれない臓器はどれか？【03, 04, 09, 11】"</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="4" t="str">
-        <f t="shared" ref="C49:C51" si="17">IF(D49="","","""" &amp; D49 &amp; """")</f>
-        <v>"脾臓 ひぞう"</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>"脾臓は血液を貯えたり、古くなった赤血球を破壊したりします。脾臓に流れ込んだ血液はその後、胃・小腸・膵臓などから流れてきた血液と合流して(これを門脈と呼ぶ)、肝臓へ流れ込む。"</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="1">
-        <f t="shared" si="0"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A52" s="9">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="4" t="str">
-        <f t="shared" si="17"/>
-        <v>"食べ物の通り道(消化管)に含まれない臓器はどれか？【03, 04, 09, 11】"</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="4" t="str">
+      <c r="B52" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="17" t="str">
         <f>IF(D52="","", "[" &amp; CONCATENATE(
   IF(D52&lt;&gt;"","""images/" &amp; VLOOKUP(D52,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E52&lt;&gt;"",", ""images/" &amp; VLOOKUP(E52,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F52&lt;&gt;"",", ""images/" &amp; VLOOKUP(F52,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G52&lt;&gt;"",", ""images/" &amp; VLOOKUP(G52,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="25"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="1">
-        <f t="shared" si="0"/>
+      <c r="A53" s="9">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="4" t="str">
-        <f t="shared" ref="C53" si="18">IF(D53="","","[" &amp; CONCATENATE(
+      <c r="B53" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="17" t="str">
+        <f t="shared" ref="C53" si="20">IF(D53="","","[" &amp; CONCATENATE(
   IF(D53&lt;&gt;"","""" &amp; D53 &amp; """", ""),
   IF(E53&lt;&gt;"",", """ &amp; E53 &amp; """", ""),
   IF(F53&lt;&gt;"",", """ &amp; F53 &amp; """", ""),
-  IF(G53&lt;&gt;"",", """ &amp; G53 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["胃", "脾臓", "小腸"]</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>66</v>
+      <c r="D53" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="1">
-        <f t="shared" si="0"/>
+      <c r="A54" s="9">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="4" t="str">
-        <f t="shared" ref="C54:C56" si="19">IF(D54="","","""" &amp; D54 &amp; """")</f>
+      <c r="B54" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="17" t="str">
+        <f t="shared" ref="C54:C56" si="21">IF(D54="","","""" &amp; D54 &amp; """")</f>
         <v>"脾臓 ひぞう"</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="1">
-        <f t="shared" si="0"/>
+      <c r="D54" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A55" s="10">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B55" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="19" t="str">
+        <f t="shared" si="21"/>
         <v>"消化管は口から順に、口腔、食道、胃、小腸(十二指腸、空腸、回腸)、大腸(盲腸、結腸、直腸)、肛門に分けられる。これに消化を助ける分泌液を出す肝臓、胆嚢、膵臓の付属臓器が繋がる。"</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="1">
-        <f t="shared" si="0"/>
+      <c r="D55" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" ht="39.950000000000003" customHeight="1">
+      <c r="A56" s="8">
         <v>12</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="4" t="str">
-        <f t="shared" si="19"/>
+      <c r="B56" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="12" t="str">
+        <f t="shared" si="21"/>
         <v>"世界には内臓が左右逆という人が存在するか？【??】"</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="1">
-        <f t="shared" si="0"/>
+      <c r="D56" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A57" s="9">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="4" t="str">
+      <c r="B57" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="17" t="str">
         <f>IF(D57="","", "[" &amp; CONCATENATE(
   IF(D57&lt;&gt;"","""images/" &amp; VLOOKUP(D57,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(E57&lt;&gt;"",", ""images/" &amp; VLOOKUP(E57,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
   IF(F57&lt;&gt;"",", ""images/" &amp; VLOOKUP(F57,画像ファイル変換!A:B,2,FALSE) &amp; """",""),
-  IF(G57&lt;&gt;"",", ""images/" &amp; VLOOKUP(G57,画像ファイル変換!A:B,2,FALSE) &amp; """","")) &amp; "]")</f>
+  ) &amp; "]")</f>
         <v>["images/stomach.png"]</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D57" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="25"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="1">
-        <f t="shared" si="0"/>
+      <c r="A58" s="9">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="4" t="str">
-        <f t="shared" ref="C58" si="20">IF(D58="","","[" &amp; CONCATENATE(
+      <c r="B58" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="17" t="str">
+        <f t="shared" ref="C58" si="22">IF(D58="","","[" &amp; CONCATENATE(
   IF(D58&lt;&gt;"","""" &amp; D58 &amp; """", ""),
   IF(E58&lt;&gt;"",", """ &amp; E58 &amp; """", ""),
   IF(F58&lt;&gt;"",", """ &amp; F58 &amp; """", ""),
-  IF(G58&lt;&gt;"",", """ &amp; G58 &amp; """",""))&amp;"]")</f>
+  )&amp;"]")</f>
         <v>["する", "しない"]</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D58" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="1">
-        <f t="shared" si="0"/>
+      <c r="A59" s="9">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="4" t="str">
-        <f t="shared" ref="C59:C60" si="21">IF(D59="","","""" &amp; D59 &amp; """")</f>
+      <c r="B59" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="17" t="str">
+        <f t="shared" ref="C59:C60" si="23">IF(D59="","","""" &amp; D59 &amp; """")</f>
         <v>"する"</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="1">
-        <f t="shared" si="0"/>
+      <c r="D59" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6" ht="60" customHeight="1" thickBot="1">
+      <c r="A60" s="10">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="4" t="str">
-        <f t="shared" si="21"/>
+      <c r="B60" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="19" t="str">
+        <f t="shared" si="23"/>
         <v>"内臓の位置が左右逆になる「内臓逆位」という先天性の奇形がある。全ての臓器が左右反転している場合を「完全内臓逆位」と呼ぶ。臓器の位置が逆転しているため、診察や手術の際にとても注意が必要となる。"</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="D60" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F60" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="解説"/>
+        <filter val="回答"/>
+        <filter val="質問"/>
+        <filter val="選択肢"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="24">
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>_xlfn.ISFORMULA(A1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="25" max="16383" man="1"/>
+    <brk id="50" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -2085,9 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5A4893-007B-4876-84E9-8A2500C2A902}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -2096,7 +2497,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5">
         <v>5</v>
@@ -2104,7 +2505,7 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>60</v>
